--- a/Test/testdata/Testdata_KLM.xlsx
+++ b/Test/testdata/Testdata_KLM.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11608A7F-039D-4CF9-B762-3CEEF7E0B294}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8393F64-1B0B-4F4E-93A6-9693D0F9A4C0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="FlyingBlue" sheetId="12" r:id="rId9"/>
     <sheet name="Role" sheetId="13" r:id="rId10"/>
     <sheet name="ClaimType" sheetId="14" r:id="rId11"/>
+    <sheet name="Datacontroller" sheetId="15" r:id="rId12"/>
+    <sheet name="Traveldata" sheetId="16" r:id="rId13"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="435">
   <si>
     <t>Vraag</t>
   </si>
@@ -1170,6 +1172,171 @@
   </si>
   <si>
     <t>EN</t>
+  </si>
+  <si>
+    <t>claimAddresses</t>
+  </si>
+  <si>
+    <t>dataHash</t>
+  </si>
+  <si>
+    <t>dataHashLocation</t>
+  </si>
+  <si>
+    <t>dataHashSalt</t>
+  </si>
+  <si>
+    <t>photo</t>
+  </si>
+  <si>
+    <t>38fad8c275f018bf504aa621fc9ce743</t>
+  </si>
+  <si>
+    <t>2cb32def804987483418188d18fbc375</t>
+  </si>
+  <si>
+    <t>ecd331596f91ddaac07c6e600ed166f1</t>
+  </si>
+  <si>
+    <t>3b2028f38cc6b736d976a7528c33a5be</t>
+  </si>
+  <si>
+    <t>00427790b744dc215401338651613aa3</t>
+  </si>
+  <si>
+    <t>38bee1e83e6dd42759f1caffcc06871d</t>
+  </si>
+  <si>
+    <t>faad4f29a7c6b8278bdfbf22c09bc56f</t>
+  </si>
+  <si>
+    <t>e6b7e14d2e7295f0b82359f717f8eb04</t>
+  </si>
+  <si>
+    <t>a09f9748402d709963153d24162999e4</t>
+  </si>
+  <si>
+    <t>bafaaef2c77a0c34d989505d06908211</t>
+  </si>
+  <si>
+    <t>ClaimName</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Where</t>
+  </si>
+  <si>
+    <t>Who</t>
+  </si>
+  <si>
+    <t>passportData</t>
+  </si>
+  <si>
+    <t>travelData</t>
+  </si>
+  <si>
+    <t>OlderEightteen</t>
+  </si>
+  <si>
+    <t>OlderTwentyOne</t>
+  </si>
+  <si>
+    <t>EUCitizen</t>
+  </si>
+  <si>
+    <t>TravelOutsideEU</t>
+  </si>
+  <si>
+    <t>FlyingBlueLevel</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIkFtaXQgTW9oYWJpciIsICJEYXRlT2ZCaXJ0aCI6ICIxOTc5LTA0LTA0IiwgIk5hdGlvbmFsaXR5IjogIk5ldGhlcmxhbmRzIiwgIkV4cGlyYXRpb25EYXRlIjogIjIwMjQtMDQtMjMiLCAiUGhvdG8iOiAiYmFzZTY0ZW5jb2RlZFBob3RvIn0</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIk1pY2hhIFdlbnN2ZWVuIiwgIkRhdGVPZkJpcnRoIjogIjE5NjAtMDQtMTIiLCAiTmF0aW9uYWxpdHkiOiAiTmV0aGVybGFuZHMiLCAiRXhwaXJhdGlvbkRhdGUiOiAiMjAyNC0wNC0yMyIsICJQaG90byI6ICJiYXNlNjRlbmNvZGVkUGhvdG8ifQ</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIlJvZ2llciBNb3JzaW5rIiwgIkRhdGVPZkJpcnRoIjogIjE5NzQtMDUtMTAiLCAiTmF0aW9uYWxpdHkiOiAiTmV0aGVybGFuZHMiLCAiRXhwaXJhdGlvbkRhdGUiOiAiMjAyNC0wNC0yMyIsICJQaG90byI6ICJiYXNlNjRlbmNvZGVkUGhvdG8ifQ</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIlJhbHBoIFZlcmhlbHN0IiwgIkRhdGVPZkJpcnRoIjogIjE5NzAtMDQtMTYiLCAiTmF0aW9uYWxpdHkiOiAiTmV0aGVybGFuZHMiLCAiRXhwaXJhdGlvbkRhdGUiOiAiMjAyNC0wNC0yMyIsICJQaG90byI6ICJiYXNlNjRlbmNvZGVkUGhvdG8ifQ</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIkJsYXplaiBEb2xvY2tpIiwgIkRhdGVPZkJpcnRoIjogIjIwMDEtMDUtMTIiLCAiTmF0aW9uYWxpdHkiOiAiTmV0aGVybGFuZHMiLCAiRXhwaXJhdGlvbkRhdGUiOiAiMjAyNC0wNC0yMyIsICJQaG90byI6ICJiYXNlNjRlbmNvZGVkUGhvdG8ifQ</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIlJvZHJpZ28gTXVzbGEiLCAiRGF0ZU9mQmlydGgiOiAiMjAwNi0wNi0xMiIsICJOYXRpb25hbGl0eSI6ICJOZXRoZXJsYW5kcyIsICJFeHBpcmF0aW9uRGF0ZSI6ICIyMDI0LTA0LTIzIiwgIlBob3RvIjogImJhc2U2NGVuY29kZWRQaG90byJ9</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIktldmluIEtlcmtob3ZlbiIsICJEYXRlT2ZCaXJ0aCI6ICIxOTUwLTA4LTEwIiwgIk5hdGlvbmFsaXR5IjogIk5ldGhlcmxhbmRzIiwgIkV4cGlyYXRpb25EYXRlIjogIjIwMjQtMDQtMjMiLCAiUGhvdG8iOiAiYmFzZTY0ZW5jb2RlZFBob3RvIn0</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIk1hcmNlbCBSYWFwIiwgIkRhdGVPZkJpcnRoIjogIjE5NjUtMDgtMjAiLCAiTmF0aW9uYWxpdHkiOiAiTmV0aGVybGFuZHMiLCAiRXhwaXJhdGlvbkRhdGUiOiAiMjAyNC0wNC0yMyIsICJQaG90byI6ICJiYXNlNjRlbmNvZGVkUGhvdG8ifQ</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIkNodW4gSGVuIEthbiIsICJEYXRlT2ZCaXJ0aCI6ICIxOTg1LTAzLTE5IiwgIk5hdGlvbmFsaXR5IjogIk5ldGhlcmxhbmRzIiwgIkV4cGlyYXRpb25EYXRlIjogIjIwMjQtMDQtMjMiLCAiUGhvdG8iOiAiYmFzZTY0ZW5jb2RlZFBob3RvIn0</t>
+  </si>
+  <si>
+    <t>eyJuYW1lIjogIlJvZWxvZiBLdWlqcGVycyIsICJEYXRlT2ZCaXJ0aCI6ICIxOTg1LTA3LTA3IiwgIk5hdGlvbmFsaXR5IjogIk5ldGhlcmxhbmRzIiwgIkV4cGlyYXRpb25EYXRlIjogIjIwMjQtMDQtMjMiLCAiUGhvdG8iOiAiYmFzZTY0ZW5jb2RlZFBob3RvIn0</t>
+  </si>
+  <si>
+    <t>PhotoHash11111</t>
+  </si>
+  <si>
+    <t>PhotoHash11112</t>
+  </si>
+  <si>
+    <t>PhotoHash11113</t>
+  </si>
+  <si>
+    <t>PhotoHash11114</t>
+  </si>
+  <si>
+    <t>PhotoHash11115</t>
+  </si>
+  <si>
+    <t>PhotoHash11116</t>
+  </si>
+  <si>
+    <t>PhotoHash11117</t>
+  </si>
+  <si>
+    <t>PhotoHash11118</t>
+  </si>
+  <si>
+    <t>PhotoHash11119</t>
+  </si>
+  <si>
+    <t>PhotoHash11120</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0w3NzkiLCAiRGF0ZSI6ICIyMDE5LTA0LTEyIiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJQQk0iLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIlN1cmluYW1lIiwgIkZsaWdodEJsdWUiOiAiU2lsdmVyIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0w3NzkiLCAiRGF0ZSI6ICIyMDE5LTA0LTEzIiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJQQk0iLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIlN1cmluYW1lIiwgIkZsaWdodEJsdWUiOiAiU2lsdmVyIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0wxMjMiLCAiRGF0ZSI6ICIyMDE5LTA0LTE0IiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJCUlUiLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIkJlbGdpdW0iLCAiRmxpZ2h0Qmx1ZSI6ICJHb2xkIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0wxMjMiLCAiRGF0ZSI6ICIyMDE5LTA1LTE0IiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJCUlUiLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIkJlbGdpdW0iLCAiRmxpZ2h0Qmx1ZSI6ICJHb2xkIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0wxMjMiLCAiRGF0ZSI6ICIyMDE5LTA1LTE4IiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJCUlUiLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIkJlbGdpdW0iLCAiRmxpZ2h0Qmx1ZSI6ICJQbGF0aW51bSJ9</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0w2NTUiLCAiRGF0ZSI6ICIyMDE5LTA2LTIwIiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJDVVIiLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIkN1cmHDp2FvIiwgIkZsaWdodEJsdWUiOiAiU2lsdmVyIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0w2NTUiLCAiRGF0ZSI6ICIyMDE5LTA2LTIyIiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJDVVIiLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIkN1cmHDp2FvIiwgIkZsaWdodEJsdWUiOiAiU2lsdmVyIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0w3NzkiLCAiRGF0ZSI6ICIyMDE5LTA2LTEyIiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJQQk0iLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIlN1cmluYW1lIiwgIkZsaWdodEJsdWUiOiAiU2lsdmVyIn0</t>
+  </si>
+  <si>
+    <t>eyJGbGlnaHROdW1iZXIiOiAiS0w1MDAiLCAiRGF0ZSI6ICIyMDE5LTA3LTAyIiwgIkRlcGFydHVyZSI6ICJBTVMiLCAiRGVwYXJ0dXJlQ291bnRyeSI6ICJOZXRoZXJsYW5kcyIsICJEZXN0aW5hdGlvbiI6ICJGUkEiLCAiRGVzdGluYXRpb25Db3VudHJ5IjogIkZyYW5rcmlqayIsICJGbGlnaHRCbHVlIjogIlNpbHZlciJ9</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1372,7 @@
       <name val="Arial Unicode MS"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1223,6 +1390,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1237,7 +1410,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1252,6 +1425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Goed" xfId="1" builtinId="26"/>
@@ -1875,7 +2049,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2004,6 +2178,486 @@
       </c>
       <c r="D11" t="s">
         <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C537E05-8D59-443F-BEC8-D70ED2B5482C}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" customWidth="1"/>
+    <col min="3" max="5" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>100001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C2">
+        <v>123456789</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2">
+        <v>111111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>200002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3">
+        <v>123456789</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3">
+        <v>222222222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>300003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4">
+        <v>123456789</v>
+      </c>
+      <c r="D4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4">
+        <v>333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>400004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C5">
+        <v>123456789</v>
+      </c>
+      <c r="D5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E5">
+        <v>444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>500005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C6">
+        <v>123456789</v>
+      </c>
+      <c r="D6" t="s">
+        <v>216</v>
+      </c>
+      <c r="E6">
+        <v>555555555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>600006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>390</v>
+      </c>
+      <c r="C7">
+        <v>123456789</v>
+      </c>
+      <c r="D7" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7">
+        <v>666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>700007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C8">
+        <v>123456789</v>
+      </c>
+      <c r="D8" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8">
+        <v>777777777</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>800008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9">
+        <v>123456789</v>
+      </c>
+      <c r="D9" t="s">
+        <v>219</v>
+      </c>
+      <c r="E9">
+        <v>888888888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>900009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>393</v>
+      </c>
+      <c r="C10">
+        <v>123456789</v>
+      </c>
+      <c r="D10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10">
+        <v>999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>100010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>394</v>
+      </c>
+      <c r="C11">
+        <v>123456789</v>
+      </c>
+      <c r="D11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E11">
+        <v>1111111110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6807C9-B451-44F2-89A7-1A456443BA70}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32.77734375" customWidth="1"/>
+    <col min="3" max="9" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" t="s">
+        <v>416</v>
+      </c>
+      <c r="G2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G3" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>403</v>
+      </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F4" t="s">
+        <v>418</v>
+      </c>
+      <c r="G4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>405</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F6" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" t="s">
+        <v>422</v>
+      </c>
+      <c r="G8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>403</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" t="s">
+        <v>423</v>
+      </c>
+      <c r="G9" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>404</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G10" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" t="s">
+        <v>425</v>
+      </c>
+      <c r="G11" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3187,7 +3841,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E2" sqref="E2:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3335,7 +3989,7 @@
   <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4059,8 +4713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A475C393-C0B2-4658-982B-D1442D34F9E0}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4628,7 +5282,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
